--- a/cargo_plates/sw_src007_nelson_quimby_bart_edna.xlsx
+++ b/cargo_plates/sw_src007_nelson_quimby_bart_edna.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02764c23b0b97413/Cloud_Documents/Shih_Lab_2024/Crisscross-Design/cargo_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39018F26-541E-EB43-ABDC-ED029D1D11F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="732" yWindow="732" windowWidth="20214" windowHeight="12438" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequences" sheetId="1" r:id="rId1"/>
@@ -1989,13 +1989,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="176" workbookViewId="0">
+    <sheetView zoomScale="176" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>520</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2390,17 +2390,17 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,22 +2612,22 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -2641,13 +2641,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>520</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -2883,7 +2883,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2936,7 +2936,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -3042,17 +3042,17 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -3264,22 +3264,22 @@
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -3297,9 +3297,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>520</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -3482,7 +3482,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -3694,17 +3694,17 @@
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -3863,7 +3863,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -3916,22 +3916,22 @@
         <v>519</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>

--- a/cargo_plates/sw_src007_nelson_quimby_bart_edna.xlsx
+++ b/cargo_plates/sw_src007_nelson_quimby_bart_edna.xlsx
@@ -5,24 +5,37 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02764c23b0b97413/Cloud_Documents/Shih_Lab_2024/Crisscross-Design/cargo_plates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02764c23b0b97413/Cloud_Documents/Shih_Lab_2024/Crisscross-Design/GUI/used-cargo-plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39018F26-541E-EB43-ABDC-ED029D1D11F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{39018F26-541E-EB43-ABDC-ED029D1D11F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A6F66BB-9351-44E6-BE43-A9A2106BF368}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="732" yWindow="732" windowWidth="20214" windowHeight="12438" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequences" sheetId="1" r:id="rId1"/>
     <sheet name="Names" sheetId="2" r:id="rId2"/>
     <sheet name="Descriptions" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="522">
   <si>
     <t>1</t>
   </si>
@@ -624,486 +637,6 @@
     <t>TCTGTAAATTAACAATTTCATTTTTTTAATGGAAACAAGTTACAAAATCttCCACTATCAACTTTTCACTCA</t>
   </si>
   <si>
-    <t>antiNelson_h2_position_1</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_17</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_1</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_17</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_1</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_17</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_1</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_17</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_1</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_17</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_2</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_18</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_2</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_18</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_2</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_18</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_2</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_18</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_2</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_18</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_3</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_19</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_3</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_19</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_3</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_19</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_3</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_19</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_3</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_19</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_4</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_20</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_4</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_20</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_4</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_20</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_4</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_20</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_4</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_20</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_5</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_21</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_5</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_21</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_5</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_21</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_5</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_21</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_5</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_21</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_6</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_22</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_6</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_22</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_6</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_22</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_6</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_22</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_6</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_22</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_7</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_23</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_7</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_23</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_7</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_23</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_7</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_23</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_7</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_23</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_8</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_24</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_8</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_24</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_8</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_24</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_8</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_24</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_8</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_24</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_9</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_25</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_9</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_25</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_9</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_25</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_9</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_25</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_9</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_25</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_10</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_26</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_10</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_26</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_10</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_26</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_10</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_26</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_10</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_26</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_11</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_27</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_11</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_27</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_11</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_27</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_11</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_27</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_11</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_27</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_12</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_28</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_12</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_28</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_12</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_28</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_12</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_28</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_12</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_28</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_13</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_29</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_13</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_29</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_13</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_29</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_13</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_29</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_13</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_29</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_14</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_30</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_14</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_30</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_14</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_30</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_14</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_30</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_14</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_30</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_15</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_31</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_15</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_31</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_15</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_31</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_15</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_31</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_15</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_31</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_16</t>
-  </si>
-  <si>
-    <t>antiNelson_h2_position_32</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_16</t>
-  </si>
-  <si>
-    <t>antiNelson_h5_position_32</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_16</t>
-  </si>
-  <si>
-    <t>antiQuimby_h2_position_32</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_16</t>
-  </si>
-  <si>
-    <t>antiBart_h5_position_32</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_16</t>
-  </si>
-  <si>
-    <t>antiEdna_h5_position_32</t>
-  </si>
-  <si>
     <t>anti-Nelson sequence handle attached to the H2 side of position 1, with a TT flexible linker.</t>
   </si>
   <si>
@@ -1585,6 +1118,489 @@
   </si>
   <si>
     <t>sw_src007</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos1</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos2</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos3</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos4</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos5</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos6</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos7</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos8</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos9</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos10</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos11</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos12</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos13</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos14</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos15</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos16</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos17</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos18</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos19</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos20</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos21</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos22</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos23</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos24</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos25</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos26</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos27</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos28</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos29</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos30</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos31</t>
+  </si>
+  <si>
+    <t>antiNelson_h2_pos32</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos1</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos2</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos3</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos4</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos5</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos6</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos7</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos8</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos9</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos10</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos11</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos12</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos13</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos14</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos15</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos16</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos17</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos18</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos19</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos20</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos21</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos22</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos23</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos24</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos25</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos26</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos27</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos28</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos29</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos30</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos31</t>
+  </si>
+  <si>
+    <t>antiNelson_h5_pos32</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos1</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos2</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos3</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos4</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos5</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos6</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos7</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos8</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos9</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos10</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos11</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos12</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos13</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos14</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos15</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos16</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos17</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos18</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos19</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos20</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos21</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos22</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos23</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos24</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos25</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos26</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos27</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos28</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos29</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos30</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos31</t>
+  </si>
+  <si>
+    <t>antiQuimby_h2_pos32</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos1</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos2</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos3</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos4</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos5</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos6</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos7</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos8</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos9</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos10</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos11</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos12</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos13</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos14</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos15</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos16</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos17</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos18</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos19</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos20</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos21</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos22</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos23</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos24</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos25</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos26</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos27</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos28</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos29</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos30</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos31</t>
+  </si>
+  <si>
+    <t>antiBart_h5_pos32</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos1</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos2</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos3</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos4</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos5</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos6</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos7</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos8</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos9</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos10</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos11</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos12</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos13</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos14</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos15</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos16</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos17</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos18</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos19</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos20</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos21</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos22</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos23</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos24</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos25</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos26</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos27</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos28</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos29</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos30</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos31</t>
+  </si>
+  <si>
+    <t>antiEdna_h5_pos32</t>
+  </si>
+  <si>
+    <t>name_side_position</t>
   </si>
 </sst>
 </file>
@@ -1673,7 +1689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1683,6 +1699,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1698,6 +1715,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1989,15 +2010,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView zoomScale="176" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
-    </sheetView>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2641,15 +2660,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="34.05078125" customWidth="1"/>
+    <col min="2" max="25" width="7.20703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2728,561 +2751,785 @@
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" t="s">
-        <v>240</v>
-      </c>
-      <c r="G2" t="s">
-        <v>250</v>
-      </c>
-      <c r="H2" t="s">
-        <v>260</v>
-      </c>
-      <c r="I2" t="s">
-        <v>270</v>
-      </c>
-      <c r="J2" t="s">
-        <v>280</v>
-      </c>
-      <c r="K2" t="s">
-        <v>290</v>
-      </c>
-      <c r="L2" t="s">
-        <v>300</v>
-      </c>
-      <c r="M2" t="s">
-        <v>310</v>
-      </c>
-      <c r="N2" t="s">
-        <v>320</v>
-      </c>
-      <c r="O2" t="s">
-        <v>330</v>
-      </c>
-      <c r="P2" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>350</v>
-      </c>
+      <c r="B2" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3" t="s">
-        <v>231</v>
-      </c>
-      <c r="F3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G3" t="s">
-        <v>251</v>
-      </c>
-      <c r="H3" t="s">
-        <v>261</v>
-      </c>
-      <c r="I3" t="s">
-        <v>271</v>
-      </c>
-      <c r="J3" t="s">
-        <v>281</v>
-      </c>
-      <c r="K3" t="s">
-        <v>291</v>
-      </c>
-      <c r="L3" t="s">
-        <v>301</v>
-      </c>
-      <c r="M3" t="s">
-        <v>311</v>
-      </c>
-      <c r="N3" t="s">
-        <v>321</v>
-      </c>
-      <c r="O3" t="s">
-        <v>331</v>
-      </c>
-      <c r="P3" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>351</v>
-      </c>
+      <c r="B3" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C4" t="s">
-        <v>212</v>
-      </c>
-      <c r="D4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F4" t="s">
-        <v>242</v>
-      </c>
-      <c r="G4" t="s">
-        <v>252</v>
-      </c>
-      <c r="H4" t="s">
-        <v>262</v>
-      </c>
-      <c r="I4" t="s">
-        <v>272</v>
-      </c>
-      <c r="J4" t="s">
-        <v>282</v>
-      </c>
-      <c r="K4" t="s">
-        <v>292</v>
-      </c>
-      <c r="L4" t="s">
-        <v>302</v>
-      </c>
-      <c r="M4" t="s">
-        <v>312</v>
-      </c>
-      <c r="N4" t="s">
-        <v>322</v>
-      </c>
-      <c r="O4" t="s">
-        <v>332</v>
-      </c>
-      <c r="P4" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>352</v>
-      </c>
+      <c r="B4" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D5" t="s">
-        <v>223</v>
-      </c>
-      <c r="E5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F5" t="s">
-        <v>243</v>
-      </c>
-      <c r="G5" t="s">
-        <v>253</v>
-      </c>
-      <c r="H5" t="s">
-        <v>263</v>
-      </c>
-      <c r="I5" t="s">
-        <v>273</v>
-      </c>
-      <c r="J5" t="s">
-        <v>283</v>
-      </c>
-      <c r="K5" t="s">
-        <v>293</v>
-      </c>
-      <c r="L5" t="s">
-        <v>303</v>
-      </c>
-      <c r="M5" t="s">
-        <v>313</v>
-      </c>
-      <c r="N5" t="s">
-        <v>323</v>
-      </c>
-      <c r="O5" t="s">
-        <v>333</v>
-      </c>
-      <c r="P5" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>353</v>
-      </c>
+      <c r="B5" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>204</v>
-      </c>
-      <c r="C6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E6" t="s">
-        <v>234</v>
-      </c>
-      <c r="F6" t="s">
-        <v>244</v>
-      </c>
-      <c r="G6" t="s">
-        <v>254</v>
-      </c>
-      <c r="H6" t="s">
-        <v>264</v>
-      </c>
-      <c r="I6" t="s">
-        <v>274</v>
-      </c>
-      <c r="J6" t="s">
-        <v>284</v>
-      </c>
-      <c r="K6" t="s">
-        <v>294</v>
-      </c>
-      <c r="L6" t="s">
-        <v>304</v>
-      </c>
-      <c r="M6" t="s">
-        <v>314</v>
-      </c>
-      <c r="N6" t="s">
-        <v>324</v>
-      </c>
-      <c r="O6" t="s">
-        <v>334</v>
-      </c>
-      <c r="P6" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>354</v>
-      </c>
+      <c r="B6" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D7" t="s">
-        <v>225</v>
-      </c>
-      <c r="E7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I7" t="s">
-        <v>275</v>
-      </c>
-      <c r="J7" t="s">
-        <v>285</v>
-      </c>
-      <c r="K7" t="s">
-        <v>295</v>
-      </c>
-      <c r="L7" t="s">
-        <v>305</v>
-      </c>
-      <c r="M7" t="s">
-        <v>315</v>
-      </c>
-      <c r="N7" t="s">
-        <v>325</v>
-      </c>
-      <c r="O7" t="s">
-        <v>335</v>
-      </c>
-      <c r="P7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>355</v>
-      </c>
+      <c r="B7" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E10" t="s">
-        <v>236</v>
-      </c>
-      <c r="F10" t="s">
-        <v>246</v>
-      </c>
-      <c r="G10" t="s">
-        <v>256</v>
-      </c>
-      <c r="H10" t="s">
-        <v>266</v>
-      </c>
-      <c r="I10" t="s">
-        <v>276</v>
-      </c>
-      <c r="J10" t="s">
-        <v>286</v>
-      </c>
-      <c r="K10" t="s">
-        <v>296</v>
-      </c>
-      <c r="L10" t="s">
-        <v>306</v>
-      </c>
-      <c r="M10" t="s">
-        <v>316</v>
-      </c>
-      <c r="N10" t="s">
-        <v>326</v>
-      </c>
-      <c r="O10" t="s">
-        <v>336</v>
-      </c>
-      <c r="P10" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>356</v>
-      </c>
+      <c r="B10" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C11" t="s">
-        <v>217</v>
-      </c>
-      <c r="D11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" t="s">
-        <v>237</v>
-      </c>
-      <c r="F11" t="s">
-        <v>247</v>
-      </c>
-      <c r="G11" t="s">
-        <v>257</v>
-      </c>
-      <c r="H11" t="s">
-        <v>267</v>
-      </c>
-      <c r="I11" t="s">
-        <v>277</v>
-      </c>
-      <c r="J11" t="s">
-        <v>287</v>
-      </c>
-      <c r="K11" t="s">
-        <v>297</v>
-      </c>
-      <c r="L11" t="s">
-        <v>307</v>
-      </c>
-      <c r="M11" t="s">
-        <v>317</v>
-      </c>
-      <c r="N11" t="s">
-        <v>327</v>
-      </c>
-      <c r="O11" t="s">
-        <v>337</v>
-      </c>
-      <c r="P11" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>357</v>
-      </c>
+      <c r="B11" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D12" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" t="s">
-        <v>238</v>
-      </c>
-      <c r="F12" t="s">
-        <v>248</v>
-      </c>
-      <c r="G12" t="s">
-        <v>258</v>
-      </c>
-      <c r="H12" t="s">
-        <v>268</v>
-      </c>
-      <c r="I12" t="s">
-        <v>278</v>
-      </c>
-      <c r="J12" t="s">
-        <v>288</v>
-      </c>
-      <c r="K12" t="s">
-        <v>298</v>
-      </c>
-      <c r="L12" t="s">
-        <v>308</v>
-      </c>
-      <c r="M12" t="s">
-        <v>318</v>
-      </c>
-      <c r="N12" t="s">
-        <v>328</v>
-      </c>
-      <c r="O12" t="s">
-        <v>338</v>
-      </c>
-      <c r="P12" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>358</v>
-      </c>
+      <c r="B12" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C13" t="s">
-        <v>219</v>
-      </c>
-      <c r="D13" t="s">
-        <v>229</v>
-      </c>
-      <c r="E13" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" t="s">
-        <v>249</v>
-      </c>
-      <c r="G13" t="s">
-        <v>259</v>
-      </c>
-      <c r="H13" t="s">
-        <v>269</v>
-      </c>
-      <c r="I13" t="s">
-        <v>279</v>
-      </c>
-      <c r="J13" t="s">
-        <v>289</v>
-      </c>
-      <c r="K13" t="s">
-        <v>299</v>
-      </c>
-      <c r="L13" t="s">
-        <v>309</v>
-      </c>
-      <c r="M13" t="s">
-        <v>319</v>
-      </c>
-      <c r="N13" t="s">
-        <v>329</v>
-      </c>
-      <c r="O13" t="s">
-        <v>339</v>
-      </c>
-      <c r="P13" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>359</v>
-      </c>
+      <c r="B13" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3293,15 +3540,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView zoomScale="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="112" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
-        <v>520</v>
+        <v>360</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -3381,52 +3628,52 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>360</v>
+        <v>200</v>
       </c>
       <c r="C2" t="s">
-        <v>370</v>
+        <v>210</v>
       </c>
       <c r="D2" t="s">
-        <v>380</v>
+        <v>220</v>
       </c>
       <c r="E2" t="s">
-        <v>390</v>
+        <v>230</v>
       </c>
       <c r="F2" t="s">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="G2" t="s">
-        <v>410</v>
+        <v>250</v>
       </c>
       <c r="H2" t="s">
-        <v>420</v>
+        <v>260</v>
       </c>
       <c r="I2" t="s">
-        <v>430</v>
+        <v>270</v>
       </c>
       <c r="J2" t="s">
-        <v>440</v>
+        <v>280</v>
       </c>
       <c r="K2" t="s">
-        <v>450</v>
+        <v>290</v>
       </c>
       <c r="L2" t="s">
-        <v>460</v>
+        <v>300</v>
       </c>
       <c r="M2" t="s">
-        <v>470</v>
+        <v>310</v>
       </c>
       <c r="N2" t="s">
-        <v>480</v>
+        <v>320</v>
       </c>
       <c r="O2" t="s">
-        <v>490</v>
+        <v>330</v>
       </c>
       <c r="P2" t="s">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="Q2" t="s">
-        <v>510</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -3434,52 +3681,52 @@
         <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>361</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
-        <v>371</v>
+        <v>211</v>
       </c>
       <c r="D3" t="s">
-        <v>381</v>
+        <v>221</v>
       </c>
       <c r="E3" t="s">
-        <v>391</v>
+        <v>231</v>
       </c>
       <c r="F3" t="s">
-        <v>401</v>
+        <v>241</v>
       </c>
       <c r="G3" t="s">
-        <v>411</v>
+        <v>251</v>
       </c>
       <c r="H3" t="s">
-        <v>421</v>
+        <v>261</v>
       </c>
       <c r="I3" t="s">
-        <v>431</v>
+        <v>271</v>
       </c>
       <c r="J3" t="s">
-        <v>441</v>
+        <v>281</v>
       </c>
       <c r="K3" t="s">
-        <v>451</v>
+        <v>291</v>
       </c>
       <c r="L3" t="s">
-        <v>461</v>
+        <v>301</v>
       </c>
       <c r="M3" t="s">
-        <v>471</v>
+        <v>311</v>
       </c>
       <c r="N3" t="s">
-        <v>481</v>
+        <v>321</v>
       </c>
       <c r="O3" t="s">
-        <v>491</v>
+        <v>331</v>
       </c>
       <c r="P3" t="s">
-        <v>501</v>
+        <v>341</v>
       </c>
       <c r="Q3" t="s">
-        <v>511</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -3487,52 +3734,52 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>362</v>
+        <v>202</v>
       </c>
       <c r="C4" t="s">
-        <v>372</v>
+        <v>212</v>
       </c>
       <c r="D4" t="s">
-        <v>382</v>
+        <v>222</v>
       </c>
       <c r="E4" t="s">
-        <v>392</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
-        <v>402</v>
+        <v>242</v>
       </c>
       <c r="G4" t="s">
-        <v>412</v>
+        <v>252</v>
       </c>
       <c r="H4" t="s">
-        <v>422</v>
+        <v>262</v>
       </c>
       <c r="I4" t="s">
-        <v>432</v>
+        <v>272</v>
       </c>
       <c r="J4" t="s">
-        <v>442</v>
+        <v>282</v>
       </c>
       <c r="K4" t="s">
-        <v>452</v>
+        <v>292</v>
       </c>
       <c r="L4" t="s">
-        <v>462</v>
+        <v>302</v>
       </c>
       <c r="M4" t="s">
-        <v>472</v>
+        <v>312</v>
       </c>
       <c r="N4" t="s">
-        <v>482</v>
+        <v>322</v>
       </c>
       <c r="O4" t="s">
-        <v>492</v>
+        <v>332</v>
       </c>
       <c r="P4" t="s">
-        <v>502</v>
+        <v>342</v>
       </c>
       <c r="Q4" t="s">
-        <v>512</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -3540,52 +3787,52 @@
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>363</v>
+        <v>203</v>
       </c>
       <c r="C5" t="s">
-        <v>373</v>
+        <v>213</v>
       </c>
       <c r="D5" t="s">
-        <v>383</v>
+        <v>223</v>
       </c>
       <c r="E5" t="s">
-        <v>393</v>
+        <v>233</v>
       </c>
       <c r="F5" t="s">
-        <v>403</v>
+        <v>243</v>
       </c>
       <c r="G5" t="s">
-        <v>413</v>
+        <v>253</v>
       </c>
       <c r="H5" t="s">
-        <v>423</v>
+        <v>263</v>
       </c>
       <c r="I5" t="s">
-        <v>433</v>
+        <v>273</v>
       </c>
       <c r="J5" t="s">
-        <v>443</v>
+        <v>283</v>
       </c>
       <c r="K5" t="s">
-        <v>453</v>
+        <v>293</v>
       </c>
       <c r="L5" t="s">
-        <v>463</v>
+        <v>303</v>
       </c>
       <c r="M5" t="s">
-        <v>473</v>
+        <v>313</v>
       </c>
       <c r="N5" t="s">
-        <v>483</v>
+        <v>323</v>
       </c>
       <c r="O5" t="s">
-        <v>493</v>
+        <v>333</v>
       </c>
       <c r="P5" t="s">
-        <v>503</v>
+        <v>343</v>
       </c>
       <c r="Q5" t="s">
-        <v>513</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -3593,52 +3840,52 @@
         <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>364</v>
+        <v>204</v>
       </c>
       <c r="C6" t="s">
-        <v>374</v>
+        <v>214</v>
       </c>
       <c r="D6" t="s">
-        <v>384</v>
+        <v>224</v>
       </c>
       <c r="E6" t="s">
-        <v>394</v>
+        <v>234</v>
       </c>
       <c r="F6" t="s">
-        <v>404</v>
+        <v>244</v>
       </c>
       <c r="G6" t="s">
-        <v>414</v>
+        <v>254</v>
       </c>
       <c r="H6" t="s">
-        <v>424</v>
+        <v>264</v>
       </c>
       <c r="I6" t="s">
-        <v>434</v>
+        <v>274</v>
       </c>
       <c r="J6" t="s">
-        <v>444</v>
+        <v>284</v>
       </c>
       <c r="K6" t="s">
-        <v>454</v>
+        <v>294</v>
       </c>
       <c r="L6" t="s">
-        <v>464</v>
+        <v>304</v>
       </c>
       <c r="M6" t="s">
-        <v>474</v>
+        <v>314</v>
       </c>
       <c r="N6" t="s">
-        <v>484</v>
+        <v>324</v>
       </c>
       <c r="O6" t="s">
-        <v>494</v>
+        <v>334</v>
       </c>
       <c r="P6" t="s">
-        <v>504</v>
+        <v>344</v>
       </c>
       <c r="Q6" t="s">
-        <v>514</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -3646,52 +3893,52 @@
         <v>29</v>
       </c>
       <c r="B7" t="s">
-        <v>365</v>
+        <v>205</v>
       </c>
       <c r="C7" t="s">
-        <v>375</v>
+        <v>215</v>
       </c>
       <c r="D7" t="s">
-        <v>385</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
-        <v>395</v>
+        <v>235</v>
       </c>
       <c r="F7" t="s">
-        <v>405</v>
+        <v>245</v>
       </c>
       <c r="G7" t="s">
-        <v>415</v>
+        <v>255</v>
       </c>
       <c r="H7" t="s">
-        <v>425</v>
+        <v>265</v>
       </c>
       <c r="I7" t="s">
-        <v>435</v>
+        <v>275</v>
       </c>
       <c r="J7" t="s">
-        <v>445</v>
+        <v>285</v>
       </c>
       <c r="K7" t="s">
-        <v>455</v>
+        <v>295</v>
       </c>
       <c r="L7" t="s">
-        <v>465</v>
+        <v>305</v>
       </c>
       <c r="M7" t="s">
-        <v>475</v>
+        <v>315</v>
       </c>
       <c r="N7" t="s">
-        <v>485</v>
+        <v>325</v>
       </c>
       <c r="O7" t="s">
-        <v>495</v>
+        <v>335</v>
       </c>
       <c r="P7" t="s">
-        <v>505</v>
+        <v>345</v>
       </c>
       <c r="Q7" t="s">
-        <v>515</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -3709,52 +3956,52 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>366</v>
+        <v>206</v>
       </c>
       <c r="C10" t="s">
-        <v>376</v>
+        <v>216</v>
       </c>
       <c r="D10" t="s">
-        <v>386</v>
+        <v>226</v>
       </c>
       <c r="E10" t="s">
-        <v>396</v>
+        <v>236</v>
       </c>
       <c r="F10" t="s">
-        <v>406</v>
+        <v>246</v>
       </c>
       <c r="G10" t="s">
-        <v>416</v>
+        <v>256</v>
       </c>
       <c r="H10" t="s">
-        <v>426</v>
+        <v>266</v>
       </c>
       <c r="I10" t="s">
-        <v>436</v>
+        <v>276</v>
       </c>
       <c r="J10" t="s">
-        <v>446</v>
+        <v>286</v>
       </c>
       <c r="K10" t="s">
-        <v>456</v>
+        <v>296</v>
       </c>
       <c r="L10" t="s">
-        <v>466</v>
+        <v>306</v>
       </c>
       <c r="M10" t="s">
-        <v>476</v>
+        <v>316</v>
       </c>
       <c r="N10" t="s">
-        <v>486</v>
+        <v>326</v>
       </c>
       <c r="O10" t="s">
-        <v>496</v>
+        <v>336</v>
       </c>
       <c r="P10" t="s">
-        <v>506</v>
+        <v>346</v>
       </c>
       <c r="Q10" t="s">
-        <v>516</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -3762,52 +4009,52 @@
         <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>367</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>377</v>
+        <v>217</v>
       </c>
       <c r="D11" t="s">
-        <v>387</v>
+        <v>227</v>
       </c>
       <c r="E11" t="s">
-        <v>397</v>
+        <v>237</v>
       </c>
       <c r="F11" t="s">
-        <v>407</v>
+        <v>247</v>
       </c>
       <c r="G11" t="s">
-        <v>417</v>
+        <v>257</v>
       </c>
       <c r="H11" t="s">
-        <v>427</v>
+        <v>267</v>
       </c>
       <c r="I11" t="s">
-        <v>437</v>
+        <v>277</v>
       </c>
       <c r="J11" t="s">
-        <v>447</v>
+        <v>287</v>
       </c>
       <c r="K11" t="s">
-        <v>457</v>
+        <v>297</v>
       </c>
       <c r="L11" t="s">
-        <v>467</v>
+        <v>307</v>
       </c>
       <c r="M11" t="s">
-        <v>477</v>
+        <v>317</v>
       </c>
       <c r="N11" t="s">
-        <v>487</v>
+        <v>327</v>
       </c>
       <c r="O11" t="s">
-        <v>497</v>
+        <v>337</v>
       </c>
       <c r="P11" t="s">
-        <v>507</v>
+        <v>347</v>
       </c>
       <c r="Q11" t="s">
-        <v>517</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -3815,52 +4062,52 @@
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>368</v>
+        <v>208</v>
       </c>
       <c r="C12" t="s">
-        <v>378</v>
+        <v>218</v>
       </c>
       <c r="D12" t="s">
-        <v>388</v>
+        <v>228</v>
       </c>
       <c r="E12" t="s">
-        <v>398</v>
+        <v>238</v>
       </c>
       <c r="F12" t="s">
-        <v>408</v>
+        <v>248</v>
       </c>
       <c r="G12" t="s">
-        <v>418</v>
+        <v>258</v>
       </c>
       <c r="H12" t="s">
-        <v>428</v>
+        <v>268</v>
       </c>
       <c r="I12" t="s">
-        <v>438</v>
+        <v>278</v>
       </c>
       <c r="J12" t="s">
-        <v>448</v>
+        <v>288</v>
       </c>
       <c r="K12" t="s">
-        <v>458</v>
+        <v>298</v>
       </c>
       <c r="L12" t="s">
-        <v>468</v>
+        <v>308</v>
       </c>
       <c r="M12" t="s">
-        <v>478</v>
+        <v>318</v>
       </c>
       <c r="N12" t="s">
-        <v>488</v>
+        <v>328</v>
       </c>
       <c r="O12" t="s">
-        <v>498</v>
+        <v>338</v>
       </c>
       <c r="P12" t="s">
-        <v>508</v>
+        <v>348</v>
       </c>
       <c r="Q12" t="s">
-        <v>518</v>
+        <v>358</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
@@ -3868,52 +4115,52 @@
         <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>369</v>
+        <v>209</v>
       </c>
       <c r="C13" t="s">
-        <v>379</v>
+        <v>219</v>
       </c>
       <c r="D13" t="s">
-        <v>389</v>
+        <v>229</v>
       </c>
       <c r="E13" t="s">
-        <v>399</v>
+        <v>239</v>
       </c>
       <c r="F13" t="s">
-        <v>409</v>
+        <v>249</v>
       </c>
       <c r="G13" t="s">
-        <v>419</v>
+        <v>259</v>
       </c>
       <c r="H13" t="s">
-        <v>429</v>
+        <v>269</v>
       </c>
       <c r="I13" t="s">
-        <v>439</v>
+        <v>279</v>
       </c>
       <c r="J13" t="s">
-        <v>449</v>
+        <v>289</v>
       </c>
       <c r="K13" t="s">
-        <v>459</v>
+        <v>299</v>
       </c>
       <c r="L13" t="s">
-        <v>469</v>
+        <v>309</v>
       </c>
       <c r="M13" t="s">
-        <v>479</v>
+        <v>319</v>
       </c>
       <c r="N13" t="s">
-        <v>489</v>
+        <v>329</v>
       </c>
       <c r="O13" t="s">
-        <v>499</v>
+        <v>339</v>
       </c>
       <c r="P13" t="s">
-        <v>509</v>
+        <v>349</v>
       </c>
       <c r="Q13" t="s">
-        <v>519</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">

--- a/cargo_plates/sw_src007_nelson_quimby_bart_edna.xlsx
+++ b/cargo_plates/sw_src007_nelson_quimby_bart_edna.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/02764c23b0b97413/Cloud_Documents/Shih_Lab_2024/Crisscross-Design/GUI/used-cargo-plates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stellawang/Documents/gitrepos/Crisscross-Design/cargo_plates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{39018F26-541E-EB43-ABDC-ED029D1D11F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A6F66BB-9351-44E6-BE43-A9A2106BF368}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1E894C-2CCA-6743-9242-5B50F438C62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46540" yWindow="-2120" windowWidth="30760" windowHeight="14480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sequences" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="522">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="618">
   <si>
     <t>1</t>
   </si>
@@ -1601,6 +1601,294 @@
   </si>
   <si>
     <t>name_side_position</t>
+  </si>
+  <si>
+    <t>CCTGGCCCTCTCCAACGTCAAAGGGCGACTTGACGGGGAAAGttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CATAAAGTGGTGAGACGGGCAACAGCTGAGAAAGCGAAAGGAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TCTGTGGTGGCTCACAATTCCACACAACCGGTCACGCTGCGCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>ATCCGCCGGGATCCAGCGCAGTGTCACTCGCCGCTACAGGGCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TTTTCGTCTTCAGCGGGGTCATTGCAGGTATAACGTGCTTTCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TTTCTCCGTTGCTGATTGCCGTTCCGGCAGGAGGCCGATTAAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>GCTATTACGGTTTACCAGTCCCGGAATTGAATCCTGAGAAGTttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>GACCGTAATCTGTTGGGAAGGGCGATCGAAAAGAGTCTGTCCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>GGAAGATTGCGTCGGATTCTCCGTGGGACTTCTTTGATTAGTttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>AGACAGTCACCCCGGTTGATAATCAGAACTCAAACTATCGGCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>GGCAAGGCATAGGTAAAGATTCAAAAGGCCGCCAGCCATTGCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>AATATGCAATAGTAGTAGCATTAACATCACATTTTGACGCTCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>AGCGGATTGGCTGAATATAATGCTGTAGGCAGATTCACCAGTttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>GATAAAAACGGTCTTTACCCTGACTATTTGGCCAACAGAGATttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TAAGAACTGCAACACTATCATAACCCTCATACGTGGCACAGAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>ACGGTGTACACTTTAATCATTGTGAATTAATGCGCGAACTGAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>ACGAAAGAGCCGAACTGACCAACTTTGACCGAACGAACCACCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CGCCCACGCTACGTAATGCCACTACGAATCAGTATTAACACCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TTTGCTAAAACCGATAGTTGCGCCGACAGCAGCAAATGAAAAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CCACCCTCACAGACGTTAGTAAATGAATAATATCAAACCCTCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>ACAGTTAATTCAGGAGGTTTAGTACCGCACAGTTGAAAGGAAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CCGCCGCCAGGGTCAGTGCCTTGAGTAAGGAGCACTAACAACttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>GAATCAAGTCCCTCAGAGCCGCCACCAGACATTTGAGGATTTttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CCAAAGACACCATCGATAGCAGCACCGTACAACTCGTATTAAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>GAACAAAGTCAATCAATAGAAAATTCATAAAGTTTGAGTAACttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CTTTACAGAGAAGCCCTTTTTAAGAAAACCAGAAGGAGCGGAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>AACCTCCCGTTTTTGTTTAACGTCAAAAGATGGCAATTCATCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>CATCCTAATTCCGGTATTCTAAGAACGCTTCTGAATAATGGAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>GTAGGGCTTATAGATAAGTCCTGAACAATTTGCACGTAAAACttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>ATCGCAAGAAAATTCTTACCAGTATAAAGGTTTAACGTCAGAttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>ATATATGTGATATAACTATATGTAAATGTCGGGAGAAACAATttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>TCTGTAAATTAACAATTTCATTTTTTTAATGGAAACAAGTTACAAAATCttCCTACTTCATCCATTAAATCC</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 1 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 2 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 3 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 4 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 5 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 6 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 7 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 8 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 9 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 10 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 11 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 12 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 13 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 14 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 15 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 16 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 17 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 18 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 19 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 20 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 21 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 22 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 23 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 24 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 25 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 26 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 27 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 28 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 29 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 30 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 31 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>cc6hb h5 position 32 staple with tt linker and anti-Quimby handle</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos1</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos2</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos3</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos4</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos5</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos6</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos7</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos8</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos9</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos10</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos11</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos12</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos13</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos14</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos15</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos16</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos17</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos18</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos19</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos20</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos21</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos22</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos23</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos24</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos25</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos26</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos27</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos28</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos29</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos30</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos31</t>
+  </si>
+  <si>
+    <t>antiQuimby_h5_pos32</t>
   </si>
 </sst>
 </file>
@@ -1715,10 +2003,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2010,11 +2294,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>360</v>
       </c>
@@ -2091,7 +2377,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -2144,7 +2430,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2197,7 +2483,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -2250,7 +2536,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2303,7 +2589,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -2356,7 +2642,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -2409,17 +2695,113 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D8" t="s">
+        <v>524</v>
+      </c>
+      <c r="E8" t="s">
+        <v>525</v>
+      </c>
+      <c r="F8" t="s">
+        <v>526</v>
+      </c>
+      <c r="G8" t="s">
+        <v>527</v>
+      </c>
+      <c r="H8" t="s">
+        <v>528</v>
+      </c>
+      <c r="I8" t="s">
+        <v>529</v>
+      </c>
+      <c r="J8" t="s">
+        <v>530</v>
+      </c>
+      <c r="K8" t="s">
+        <v>531</v>
+      </c>
+      <c r="L8" t="s">
+        <v>532</v>
+      </c>
+      <c r="M8" t="s">
+        <v>533</v>
+      </c>
+      <c r="N8" t="s">
+        <v>534</v>
+      </c>
+      <c r="O8" t="s">
+        <v>535</v>
+      </c>
+      <c r="P8" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D9" t="s">
+        <v>540</v>
+      </c>
+      <c r="E9" t="s">
+        <v>541</v>
+      </c>
+      <c r="F9" t="s">
+        <v>542</v>
+      </c>
+      <c r="G9" t="s">
+        <v>543</v>
+      </c>
+      <c r="H9" t="s">
+        <v>544</v>
+      </c>
+      <c r="I9" t="s">
+        <v>545</v>
+      </c>
+      <c r="J9" t="s">
+        <v>546</v>
+      </c>
+      <c r="K9" t="s">
+        <v>547</v>
+      </c>
+      <c r="L9" t="s">
+        <v>548</v>
+      </c>
+      <c r="M9" t="s">
+        <v>549</v>
+      </c>
+      <c r="N9" t="s">
+        <v>550</v>
+      </c>
+      <c r="O9" t="s">
+        <v>551</v>
+      </c>
+      <c r="P9" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -2472,7 +2854,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -2525,7 +2907,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -2578,7 +2960,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -2631,22 +3013,22 @@
         <v>199</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -2660,17 +3042,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.05078125" customWidth="1"/>
-    <col min="2" max="25" width="7.20703125" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
+    <col min="2" max="25" width="7.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>521</v>
       </c>
@@ -2747,7 +3129,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -2808,7 +3190,7 @@
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -2869,7 +3251,7 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -2930,7 +3312,7 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="7"/>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2991,7 +3373,7 @@
       <c r="X5" s="7"/>
       <c r="Y5" s="7"/>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -3052,7 +3434,7 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="7"/>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -3113,26 +3495,58 @@
       <c r="X7" s="7"/>
       <c r="Y7" s="7"/>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>597</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>601</v>
+      </c>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
@@ -3142,26 +3556,58 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>617</v>
+      </c>
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="7"/>
@@ -3171,7 +3617,7 @@
       <c r="X9" s="7"/>
       <c r="Y9" s="7"/>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -3232,7 +3678,7 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="7"/>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -3293,7 +3739,7 @@
       <c r="X11" s="7"/>
       <c r="Y11" s="7"/>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -3354,7 +3800,7 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="7"/>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -3415,7 +3861,7 @@
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
@@ -3444,7 +3890,7 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="7"/>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
@@ -3473,7 +3919,7 @@
       <c r="X15" s="7"/>
       <c r="Y15" s="7"/>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -3502,7 +3948,7 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="7"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
@@ -3541,12 +3987,12 @@
   <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView zoomScale="112" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18:F21"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>360</v>
       </c>
@@ -3623,7 +4069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>24</v>
       </c>
@@ -3676,7 +4122,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>25</v>
       </c>
@@ -3729,7 +4175,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -3782,7 +4228,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -3835,7 +4281,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -3888,7 +4334,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -3941,17 +4387,113 @@
         <v>355</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C8" t="s">
+        <v>555</v>
+      </c>
+      <c r="D8" t="s">
+        <v>556</v>
+      </c>
+      <c r="E8" t="s">
+        <v>557</v>
+      </c>
+      <c r="F8" t="s">
+        <v>558</v>
+      </c>
+      <c r="G8" t="s">
+        <v>559</v>
+      </c>
+      <c r="H8" t="s">
+        <v>560</v>
+      </c>
+      <c r="I8" t="s">
+        <v>561</v>
+      </c>
+      <c r="J8" t="s">
+        <v>562</v>
+      </c>
+      <c r="K8" t="s">
+        <v>563</v>
+      </c>
+      <c r="L8" t="s">
+        <v>564</v>
+      </c>
+      <c r="M8" t="s">
+        <v>565</v>
+      </c>
+      <c r="N8" t="s">
+        <v>566</v>
+      </c>
+      <c r="O8" t="s">
+        <v>567</v>
+      </c>
+      <c r="P8" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+      <c r="B9" t="s">
+        <v>570</v>
+      </c>
+      <c r="C9" t="s">
+        <v>571</v>
+      </c>
+      <c r="D9" t="s">
+        <v>572</v>
+      </c>
+      <c r="E9" t="s">
+        <v>573</v>
+      </c>
+      <c r="F9" t="s">
+        <v>574</v>
+      </c>
+      <c r="G9" t="s">
+        <v>575</v>
+      </c>
+      <c r="H9" t="s">
+        <v>576</v>
+      </c>
+      <c r="I9" t="s">
+        <v>577</v>
+      </c>
+      <c r="J9" t="s">
+        <v>578</v>
+      </c>
+      <c r="K9" t="s">
+        <v>579</v>
+      </c>
+      <c r="L9" t="s">
+        <v>580</v>
+      </c>
+      <c r="M9" t="s">
+        <v>581</v>
+      </c>
+      <c r="N9" t="s">
+        <v>582</v>
+      </c>
+      <c r="O9" t="s">
+        <v>583</v>
+      </c>
+      <c r="P9" t="s">
+        <v>584</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -4004,7 +4546,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
@@ -4057,7 +4599,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
@@ -4110,7 +4652,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -4163,22 +4705,22 @@
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
